--- a/임직원 비상연락망.xlsx
+++ b/임직원 비상연락망.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">신규내선!$A$1:$H$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">신규내선!$A$1:$H$46</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="119">
   <si>
     <t>㈜닥터홈  연락처</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,18 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>서운영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>070-5226-3051</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-3779-4053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>차장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -188,18 +176,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이병훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>070-5226-3052</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>010-2073-6460</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3층 회의실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -312,26 +292,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>차장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서종민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-7547-1958</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hufs13@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>최혜지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -365,10 +329,6 @@
   </si>
   <si>
     <t>070-5226-1276</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2층 회의실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -393,10 +353,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>seou@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ssaintgirl@naver.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -449,10 +405,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> qud1qud@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dndbsdl@naver.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -465,10 +417,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>010-6343-8711</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>허  인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -549,13 +497,24 @@
   </si>
   <si>
     <t>kim199612@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-6343-7811</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9488-9474</t>
+  </si>
+  <si>
+    <t>2층 공석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1076,10 +1035,10 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
@@ -1152,13 +1111,13 @@
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D5" s="11">
         <v>5200</v>
@@ -1174,29 +1133,31 @@
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>2796</v>
+      </c>
       <c r="E6" s="20"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D7" s="11">
         <v>2805</v>
@@ -1204,19 +1165,23 @@
       <c r="E7" s="20"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2788</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1227,580 +1192,526 @@
         <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11">
-        <v>2796</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2795</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2788</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="9"/>
+      <c r="G10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2795</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D12" s="11">
-        <v>2794</v>
+        <v>2806</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>103</v>
+        <v>66</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D13" s="13">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="E13" s="21"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2806</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>75</v>
+        <v>114</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2794</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2793</v>
+        <v>100</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2789</v>
       </c>
       <c r="E15" s="21"/>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2800</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>117</v>
+      <c r="G16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2801</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="11">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>90</v>
-      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" s="11">
-        <v>2799</v>
+        <v>5202</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G20" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D21" s="11">
-        <v>2803</v>
+        <v>2792</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D22" s="11">
-        <v>5202</v>
+        <v>2802</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>95</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="D23" s="11">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G23" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>126</v>
+        <v>27</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D24" s="11">
-        <v>2802</v>
+        <v>2791</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D25" s="11">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2798</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="23">
+        <v>2804</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="11">
-        <v>2791</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="11">
-        <v>2790</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="11">
-        <v>2798</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="23">
-        <v>2804</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:8" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>46</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-    </row>
+      <c r="A43" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>87</v>
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A40:H40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1"/>
-    <hyperlink ref="H19" r:id="rId2"/>
-    <hyperlink ref="H21" r:id="rId3"/>
-    <hyperlink ref="H13" r:id="rId4"/>
-    <hyperlink ref="H15" r:id="rId5"/>
+    <hyperlink ref="H16" r:id="rId1"/>
+    <hyperlink ref="H17" r:id="rId2"/>
+    <hyperlink ref="H19" r:id="rId3"/>
+    <hyperlink ref="H11" r:id="rId4"/>
+    <hyperlink ref="H13" r:id="rId5"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
